--- a/biology/Zoologie/Furcembolus/Furcembolus.xlsx
+++ b/biology/Zoologie/Furcembolus/Furcembolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furcembolus est un  genre fossile d'araignées aranéomorphes de la famille des Tetrablemmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furcembolus est un  genre fossile d'araignées aranéomorphes de la famille des Tetrablemmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 18.0[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 18.0 :
 † Furcembolus andersoni Wunderlich, 2008
 † Furcembolus armatura (Wunderlich, 2015)
 † Furcembolus biacuta (Wunderlich, 2015)
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wunderlich, 2008 : The dominance of ancient spider families of the Araneae: Haplogyne in the Cretaceous, and the late diversification of advanced ecribellate spiders of the Entelegynae after the Cretaceous–Tertiary boundary extinction events, with descriptions of new families. Beiträge zur Araneologie, vol. 5, p. 524–675 (en).</t>
         </is>
